--- a/biology/Histoire de la zoologie et de la botanique/Perceval_de_Loriol/Perceval_de_Loriol.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Perceval_de_Loriol/Perceval_de_Loriol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Perceval de Loriol (nom complet : Charles Louis Perceval de Loriol, ou de Loriol Le Fort), né le 24 juillet 1828 à Genève et mort le 23 décembre 1908 à Cologny, est un paléontologue et stratigraphiste suisse. Il est connu pour ses contributions à l'étude des échinodermes vivants et fossiles, et notamment les oursins, mais a également beaucoup contribué à l'étude des faunes de mollusques et de brachiopodes du Jurassique et du Crétacé, ainsi que d'autres groupes marins fossiles.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il étudie les sciences naturelles et la paléontologie auprès de François-Jules Pictet de la Rive[1]. Bien qu'il ne soit pas rattaché officiellement au Muséum d'histoire naturelle de Genève, c'est dans les collections de cette institution qu'il passe l'essentiel de son temps, pendant près de quarante ans[2],[1]. Il devient membre de la commission qui dirige alors le muséum en 1872, et le reste jusqu'en 1878, quand un directeur, Godefroy Lunel, est nommé[2]. Il est l'un des fondateurs de la Société paléontologique Suisse, et un éditeur de ses Mémoires. Il publie de nombreux articles et des monographies sur les échinodermes du Jurassique, du Crétacé et du haut Tertiaire de l'Europe occidentale et centrale et du nord de l'Afrique. L'Université de Genève lui décerne un doctorat honoris causa en 1902[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie les sciences naturelles et la paléontologie auprès de François-Jules Pictet de la Rive. Bien qu'il ne soit pas rattaché officiellement au Muséum d'histoire naturelle de Genève, c'est dans les collections de cette institution qu'il passe l'essentiel de son temps, pendant près de quarante ans,. Il devient membre de la commission qui dirige alors le muséum en 1872, et le reste jusqu'en 1878, quand un directeur, Godefroy Lunel, est nommé. Il est l'un des fondateurs de la Société paléontologique Suisse, et un éditeur de ses Mémoires. Il publie de nombreux articles et des monographies sur les échinodermes du Jurassique, du Crétacé et du haut Tertiaire de l'Europe occidentale et centrale et du nord de l'Afrique. L'Université de Genève lui décerne un doctorat honoris causa en 1902.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Perceval de Loriol est le descripteur d'une famille de comatules :
 Bourgueticrinidae Loriol, 1882
